--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I187"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,17 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Ferramenta 2 - Google workspace</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ferramenta 1 - Github</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Beneficio 2 - Gympass</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ferramenta 1 - Github</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Ferramenta 1 - Github</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -503,16 +503,16 @@
         <v>297.13</v>
       </c>
       <c r="F2" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G2" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H2" t="n">
         <v>533.99</v>
       </c>
       <c r="I2" t="n">
-        <v>4470.710765580439</v>
+        <v>4560.710765580439</v>
       </c>
     </row>
     <row r="3">
@@ -541,13 +541,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H3" t="n">
         <v>855.8</v>
       </c>
       <c r="I3" t="n">
-        <v>4872.033451680459</v>
+        <v>4962.033451680459</v>
       </c>
     </row>
     <row r="4">
@@ -573,16 +573,16 @@
         <v>297.13</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>141.46</v>
       </c>
       <c r="G4" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H4" t="n">
         <v>444.99</v>
       </c>
       <c r="I4" t="n">
-        <v>9846.309721841499</v>
+        <v>9936.309721841499</v>
       </c>
     </row>
     <row r="5">
@@ -611,13 +611,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H5" t="n">
         <v>444.99</v>
       </c>
       <c r="I5" t="n">
-        <v>8801.909738823022</v>
+        <v>8891.909738823022</v>
       </c>
     </row>
     <row r="6">
@@ -646,13 +646,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H6" t="n">
         <v>444.99</v>
       </c>
       <c r="I6" t="n">
-        <v>8106.646801321949</v>
+        <v>8196.646801321949</v>
       </c>
     </row>
     <row r="7">
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
         <v>444.99</v>
       </c>
       <c r="I7" t="n">
-        <v>6061.107724937523</v>
+        <v>6151.107724937523</v>
       </c>
     </row>
     <row r="8">
@@ -713,16 +713,16 @@
         <v>297.13</v>
       </c>
       <c r="F8" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G8" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H8" t="n">
         <v>364.76</v>
       </c>
       <c r="I8" t="n">
-        <v>10467.73905794158</v>
+        <v>10557.73905794158</v>
       </c>
     </row>
     <row r="9">
@@ -748,16 +748,16 @@
         <v>297.13</v>
       </c>
       <c r="F9" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G9" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H9" t="n">
         <v>560.7</v>
       </c>
       <c r="I9" t="n">
-        <v>9396.596836853116</v>
+        <v>9486.596836853116</v>
       </c>
     </row>
     <row r="10">
@@ -783,16 +783,16 @@
         <v>297.13</v>
       </c>
       <c r="F10" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G10" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H10" t="n">
         <v>444.99</v>
       </c>
       <c r="I10" t="n">
-        <v>2311.868209620668</v>
+        <v>2401.868209620668</v>
       </c>
     </row>
     <row r="11">
@@ -818,16 +818,16 @@
         <v>297.13</v>
       </c>
       <c r="F11" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G11" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H11" t="n">
         <v>533.99</v>
       </c>
       <c r="I11" t="n">
-        <v>2309.06255272744</v>
+        <v>2399.06255272744</v>
       </c>
     </row>
     <row r="12">
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H12" t="n">
         <v>848.05</v>
       </c>
       <c r="I12" t="n">
-        <v>5167.013629163991</v>
+        <v>5257.013629163991</v>
       </c>
     </row>
     <row r="13">
@@ -891,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="H13" t="n">
         <v>533.99</v>
       </c>
       <c r="I13" t="n">
-        <v>6075.743025188975</v>
+        <v>6192.743025188975</v>
       </c>
     </row>
     <row r="14">
@@ -926,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H14" t="n">
         <v>444.99</v>
       </c>
       <c r="I14" t="n">
-        <v>8799.377421621037</v>
+        <v>8889.377421621037</v>
       </c>
     </row>
     <row r="15">
@@ -958,16 +958,16 @@
         <v>297.13</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>141.46</v>
       </c>
       <c r="G15" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H15" t="n">
         <v>533.99</v>
       </c>
       <c r="I15" t="n">
-        <v>10685.30828538261</v>
+        <v>10775.30828538261</v>
       </c>
     </row>
     <row r="16">
@@ -993,16 +993,16 @@
         <v>297.13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>141.46</v>
       </c>
       <c r="G16" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H16" t="n">
         <v>533.99</v>
       </c>
       <c r="I16" t="n">
-        <v>8460.579892436921</v>
+        <v>8550.579892436921</v>
       </c>
     </row>
     <row r="17">
@@ -1028,16 +1028,16 @@
         <v>297.13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>141.46</v>
       </c>
       <c r="G17" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H17" t="n">
         <v>444.99</v>
       </c>
       <c r="I17" t="n">
-        <v>8913.117680926518</v>
+        <v>9003.117680926518</v>
       </c>
     </row>
     <row r="18">
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H18" t="n">
         <v>364.76</v>
       </c>
       <c r="I18" t="n">
-        <v>2698.404997025348</v>
+        <v>2788.404997025348</v>
       </c>
     </row>
     <row r="19">
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H19" t="n">
         <v>444.99</v>
       </c>
       <c r="I19" t="n">
-        <v>1850.460345861017</v>
+        <v>1940.460345861017</v>
       </c>
     </row>
     <row r="20">
@@ -1133,16 +1133,16 @@
         <v>297.13</v>
       </c>
       <c r="F20" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G20" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H20" t="n">
         <v>444.99</v>
       </c>
       <c r="I20" t="n">
-        <v>10973.28102463056</v>
+        <v>11063.28102463056</v>
       </c>
     </row>
     <row r="21">
@@ -1168,16 +1168,16 @@
         <v>297.13</v>
       </c>
       <c r="F21" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G21" t="n">
-        <v>141.46</v>
+        <v>117</v>
       </c>
       <c r="H21" t="n">
         <v>560.7</v>
       </c>
       <c r="I21" t="n">
-        <v>4407.492751492262</v>
+        <v>4524.492751492262</v>
       </c>
     </row>
     <row r="22">
@@ -1203,16 +1203,16 @@
         <v>297.13</v>
       </c>
       <c r="F22" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G22" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H22" t="n">
         <v>533.99</v>
       </c>
       <c r="I22" t="n">
-        <v>9357.590794845279</v>
+        <v>9447.590794845279</v>
       </c>
     </row>
     <row r="23">
@@ -1241,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H23" t="n">
         <v>444.99</v>
       </c>
       <c r="I23" t="n">
-        <v>6030.380196934793</v>
+        <v>6120.380196934793</v>
       </c>
     </row>
     <row r="24">
@@ -1273,16 +1273,16 @@
         <v>297.13</v>
       </c>
       <c r="F24" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G24" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H24" t="n">
         <v>560.7</v>
       </c>
       <c r="I24" t="n">
-        <v>6076.00282637831</v>
+        <v>6166.00282637831</v>
       </c>
     </row>
     <row r="25">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="H25" t="n">
         <v>364.76</v>
       </c>
       <c r="I25" t="n">
-        <v>5249.657886848967</v>
+        <v>5366.657886848967</v>
       </c>
     </row>
     <row r="26">
@@ -1346,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H26" t="n">
         <v>533.99</v>
       </c>
       <c r="I26" t="n">
-        <v>4061.30657849905</v>
+        <v>4151.30657849905</v>
       </c>
     </row>
     <row r="27">
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H27" t="n">
         <v>444.99</v>
       </c>
       <c r="I27" t="n">
-        <v>2104.351969577254</v>
+        <v>2194.351969577254</v>
       </c>
     </row>
     <row r="28">
@@ -1413,16 +1413,16 @@
         <v>297.13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>141.46</v>
       </c>
       <c r="G28" t="n">
-        <v>141.46</v>
+        <v>206.57</v>
       </c>
       <c r="H28" t="n">
         <v>364.76</v>
       </c>
       <c r="I28" t="n">
-        <v>8723.803739691341</v>
+        <v>8930.37373969134</v>
       </c>
     </row>
     <row r="29">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H29" t="n">
         <v>364.76</v>
       </c>
       <c r="I29" t="n">
-        <v>7049.183051889353</v>
+        <v>7139.183051889353</v>
       </c>
     </row>
     <row r="30">
@@ -1483,16 +1483,16 @@
         <v>297.13</v>
       </c>
       <c r="F30" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G30" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H30" t="n">
         <v>364.76</v>
       </c>
       <c r="I30" t="n">
-        <v>6931.621383248207</v>
+        <v>7021.621383248207</v>
       </c>
     </row>
     <row r="31">
@@ -1518,16 +1518,16 @@
         <v>297.13</v>
       </c>
       <c r="F31" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G31" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H31" t="n">
         <v>533.99</v>
       </c>
       <c r="I31" t="n">
-        <v>8352.306797367171</v>
+        <v>8442.306797367171</v>
       </c>
     </row>
     <row r="32">
@@ -1553,16 +1553,16 @@
         <v>297.13</v>
       </c>
       <c r="F32" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G32" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H32" t="n">
         <v>364.76</v>
       </c>
       <c r="I32" t="n">
-        <v>5526.914047610113</v>
+        <v>5616.914047610113</v>
       </c>
     </row>
     <row r="33">
@@ -1588,16 +1588,16 @@
         <v>297.13</v>
       </c>
       <c r="F33" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G33" t="n">
-        <v>141.46</v>
+        <v>246</v>
       </c>
       <c r="H33" t="n">
         <v>364.76</v>
       </c>
       <c r="I33" t="n">
-        <v>9104.35960081588</v>
+        <v>9350.35960081588</v>
       </c>
     </row>
     <row r="34">
@@ -1623,16 +1623,16 @@
         <v>297.13</v>
       </c>
       <c r="F34" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G34" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H34" t="n">
         <v>444.99</v>
       </c>
       <c r="I34" t="n">
-        <v>2277.34645381395</v>
+        <v>2367.34645381395</v>
       </c>
     </row>
     <row r="35">
@@ -1658,16 +1658,16 @@
         <v>297.13</v>
       </c>
       <c r="F35" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G35" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H35" t="n">
         <v>364.76</v>
       </c>
       <c r="I35" t="n">
-        <v>9754.295201541867</v>
+        <v>9844.295201541867</v>
       </c>
     </row>
     <row r="36">
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="H36" t="n">
         <v>364.76</v>
       </c>
       <c r="I36" t="n">
-        <v>3928.547357480083</v>
+        <v>4092.547357480083</v>
       </c>
     </row>
     <row r="37">
@@ -1728,16 +1728,16 @@
         <v>297.13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>141.46</v>
       </c>
       <c r="G37" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H37" t="n">
         <v>364.76</v>
       </c>
       <c r="I37" t="n">
-        <v>9301.195668097969</v>
+        <v>9391.195668097969</v>
       </c>
     </row>
     <row r="38">
@@ -1766,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H38" t="n">
         <v>444.99</v>
       </c>
       <c r="I38" t="n">
-        <v>4232.76446620121</v>
+        <v>4322.76446620121</v>
       </c>
     </row>
     <row r="39">
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H39" t="n">
         <v>364.76</v>
       </c>
       <c r="I39" t="n">
-        <v>1874.057158944151</v>
+        <v>1964.057158944151</v>
       </c>
     </row>
     <row r="40">
@@ -1833,16 +1833,16 @@
         <v>297.13</v>
       </c>
       <c r="F40" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G40" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H40" t="n">
         <v>404.91</v>
       </c>
       <c r="I40" t="n">
-        <v>1214.61215616471</v>
+        <v>1304.61215616471</v>
       </c>
     </row>
     <row r="41">
@@ -1871,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6199.564171124831</v>
+        <v>6289.564171124831</v>
       </c>
     </row>
     <row r="42">
@@ -1903,16 +1903,16 @@
         <v>297.13</v>
       </c>
       <c r="F42" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G42" t="n">
-        <v>141.46</v>
+        <v>732</v>
       </c>
       <c r="H42" t="n">
         <v>364.76</v>
       </c>
       <c r="I42" t="n">
-        <v>10841.69931350882</v>
+        <v>11573.69931350882</v>
       </c>
     </row>
     <row r="43">
@@ -1941,13 +1941,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H43" t="n">
         <v>444.99</v>
       </c>
       <c r="I43" t="n">
-        <v>4739.201814681695</v>
+        <v>4829.201814681695</v>
       </c>
     </row>
     <row r="44">
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H44" t="n">
         <v>533.99</v>
       </c>
       <c r="I44" t="n">
-        <v>6076.07395791246</v>
+        <v>6166.07395791246</v>
       </c>
     </row>
     <row r="45">
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H45" t="n">
         <v>364.76</v>
       </c>
       <c r="I45" t="n">
-        <v>6845.66422031294</v>
+        <v>6935.66422031294</v>
       </c>
     </row>
     <row r="46">
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H46" t="n">
         <v>444.99</v>
       </c>
       <c r="I46" t="n">
-        <v>6915.523303137569</v>
+        <v>7005.523303137569</v>
       </c>
     </row>
     <row r="47">
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H47" t="n">
         <v>684.63</v>
       </c>
       <c r="I47" t="n">
-        <v>8046.911216079629</v>
+        <v>8136.911216079629</v>
       </c>
     </row>
     <row r="48">
@@ -2116,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H48" t="n">
         <v>855.8</v>
       </c>
       <c r="I48" t="n">
-        <v>10248.02015171554</v>
+        <v>10338.02015171554</v>
       </c>
     </row>
     <row r="49">
@@ -2148,16 +2148,16 @@
         <v>297.13</v>
       </c>
       <c r="F49" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G49" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H49" t="n">
         <v>560.7</v>
       </c>
       <c r="I49" t="n">
-        <v>1859.411078367926</v>
+        <v>1949.411078367926</v>
       </c>
     </row>
     <row r="50">
@@ -2183,16 +2183,16 @@
         <v>297.13</v>
       </c>
       <c r="F50" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G50" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H50" t="n">
         <v>855.8</v>
       </c>
       <c r="I50" t="n">
-        <v>10141.22129096568</v>
+        <v>10231.22129096568</v>
       </c>
     </row>
     <row r="51">
@@ -2218,16 +2218,16 @@
         <v>297.13</v>
       </c>
       <c r="F51" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G51" t="n">
-        <v>141.46</v>
+        <v>164</v>
       </c>
       <c r="H51" t="n">
         <v>364.76</v>
       </c>
       <c r="I51" t="n">
-        <v>4868.724962932551</v>
+        <v>5032.724962932551</v>
       </c>
     </row>
     <row r="52">
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H52" t="n">
         <v>-328.28</v>
       </c>
       <c r="I52" t="n">
-        <v>6961.98850131002</v>
+        <v>7051.98850131002</v>
       </c>
     </row>
     <row r="53">
@@ -2288,16 +2288,16 @@
         <v>297.13</v>
       </c>
       <c r="F53" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G53" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H53" t="n">
         <v>622.41</v>
       </c>
       <c r="I53" t="n">
-        <v>1664.344359132607</v>
+        <v>1754.344359132607</v>
       </c>
     </row>
     <row r="54">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H54" t="n">
         <v>444.99</v>
       </c>
       <c r="I54" t="n">
-        <v>2203.363910515265</v>
+        <v>2293.363910515265</v>
       </c>
     </row>
     <row r="55">
@@ -2361,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H55" t="n">
         <v>444.99</v>
       </c>
       <c r="I55" t="n">
-        <v>3483.485342728207</v>
+        <v>3573.485342728207</v>
       </c>
     </row>
     <row r="56">
@@ -2396,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H56" t="n">
         <v>444.99</v>
       </c>
       <c r="I56" t="n">
-        <v>5197.179040524838</v>
+        <v>5287.179040524838</v>
       </c>
     </row>
     <row r="57">
@@ -2428,16 +2428,16 @@
         <v>297.13</v>
       </c>
       <c r="F57" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G57" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H57" t="n">
         <v>364.76</v>
       </c>
       <c r="I57" t="n">
-        <v>1716.700426414696</v>
+        <v>1806.700426414696</v>
       </c>
     </row>
     <row r="58">
@@ -2466,13 +2466,13 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H58" t="n">
         <v>364.76</v>
       </c>
       <c r="I58" t="n">
-        <v>7998.792571199591</v>
+        <v>8088.792571199591</v>
       </c>
     </row>
     <row r="59">
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="H59" t="n">
         <v>560.7</v>
       </c>
       <c r="I59" t="n">
-        <v>2586.459771639805</v>
+        <v>2703.459771639805</v>
       </c>
     </row>
     <row r="60">
@@ -2533,16 +2533,16 @@
         <v>297.13</v>
       </c>
       <c r="F60" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G60" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H60" t="n">
         <v>533.99</v>
       </c>
       <c r="I60" t="n">
-        <v>7046.611253655476</v>
+        <v>7136.611253655476</v>
       </c>
     </row>
     <row r="61">
@@ -2571,13 +2571,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H61" t="n">
         <v>-17.8</v>
       </c>
       <c r="I61" t="n">
-        <v>7585.728876912478</v>
+        <v>7675.728876912478</v>
       </c>
     </row>
     <row r="62">
@@ -2603,16 +2603,16 @@
         <v>297.13</v>
       </c>
       <c r="F62" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G62" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H62" t="n">
         <v>533.99</v>
       </c>
       <c r="I62" t="n">
-        <v>5141.258897212339</v>
+        <v>5231.258897212339</v>
       </c>
     </row>
     <row r="63">
@@ -2638,1876 +2638,16 @@
         <v>297.13</v>
       </c>
       <c r="F63" t="n">
-        <v>113.17</v>
+        <v>254.63</v>
       </c>
       <c r="G63" t="n">
-        <v>141.46</v>
+        <v>90</v>
       </c>
       <c r="H63" t="n">
         <v>498.39</v>
       </c>
       <c r="I63" t="n">
-        <v>7765.791722399166</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
-        <v>141.46</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
-        <v>141.46</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="n">
-        <v>141.46</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="n">
-        <v>141.46</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="n">
-        <v>141.46</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="n">
-        <v>141.46</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="n">
-        <v>0</v>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr"/>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr"/>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr"/>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr"/>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr"/>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr"/>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="n">
-        <v>254.63</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr"/>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="n">
-        <v>90</v>
-      </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr"/>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="n">
-        <v>90</v>
-      </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr"/>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="n">
-        <v>90</v>
-      </c>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr"/>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="n">
-        <v>90</v>
-      </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
-      <c r="I129" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr"/>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="n">
-        <v>90</v>
-      </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr"/>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="n">
-        <v>90</v>
-      </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
-      <c r="I131" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr"/>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="n">
-        <v>90</v>
-      </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr"/>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="n">
-        <v>90</v>
-      </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr"/>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="n">
-        <v>90</v>
-      </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr"/>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="n">
-        <v>90</v>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr"/>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="n">
-        <v>90</v>
-      </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr"/>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="n">
-        <v>117</v>
-      </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr"/>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="n">
-        <v>90</v>
-      </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr"/>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="n">
-        <v>90</v>
-      </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr"/>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="n">
-        <v>90</v>
-      </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr"/>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="n">
-        <v>90</v>
-      </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr"/>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="n">
-        <v>90</v>
-      </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr"/>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="n">
-        <v>90</v>
-      </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr"/>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="n">
-        <v>90</v>
-      </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr"/>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="n">
-        <v>117</v>
-      </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr"/>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="n">
-        <v>90</v>
-      </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr"/>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="n">
-        <v>90</v>
-      </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr"/>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="n">
-        <v>90</v>
-      </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr"/>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="n">
-        <v>117</v>
-      </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr"/>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="n">
-        <v>90</v>
-      </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr"/>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="n">
-        <v>90</v>
-      </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr"/>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="n">
-        <v>206.57</v>
-      </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="n">
-        <v>206.57</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr"/>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="n">
-        <v>90</v>
-      </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr"/>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="n">
-        <v>90</v>
-      </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr"/>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="n">
-        <v>90</v>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr"/>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="n">
-        <v>90</v>
-      </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr"/>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="n">
-        <v>246</v>
-      </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="n">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr"/>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="n">
-        <v>90</v>
-      </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr"/>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="n">
-        <v>90</v>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr"/>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="n">
-        <v>164</v>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr"/>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="n">
-        <v>90</v>
-      </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="n">
-        <v>90</v>
-      </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr"/>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="n">
-        <v>90</v>
-      </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr"/>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="n">
-        <v>90</v>
-      </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr"/>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="n">
-        <v>90</v>
-      </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr"/>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="n">
-        <v>732</v>
-      </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="n">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr"/>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="n">
-        <v>90</v>
-      </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="n">
-        <v>90</v>
-      </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr"/>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="n">
-        <v>90</v>
-      </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr"/>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="n">
-        <v>90</v>
-      </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr"/>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="n">
-        <v>90</v>
-      </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr"/>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="n">
-        <v>90</v>
-      </c>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr"/>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="n">
-        <v>90</v>
-      </c>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr"/>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="n">
-        <v>90</v>
-      </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr"/>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="n">
-        <v>164</v>
-      </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr"/>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="n">
-        <v>90</v>
-      </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr"/>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="n">
-        <v>90</v>
-      </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr"/>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="n">
-        <v>90</v>
-      </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr"/>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="n">
-        <v>90</v>
-      </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr"/>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="n">
-        <v>90</v>
-      </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr"/>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="n">
-        <v>90</v>
-      </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr"/>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="n">
-        <v>90</v>
-      </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr"/>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="n">
-        <v>117</v>
-      </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr"/>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="n">
-        <v>90</v>
-      </c>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr"/>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="n">
-        <v>90</v>
-      </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr"/>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="n">
-        <v>90</v>
-      </c>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr"/>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="n">
-        <v>90</v>
-      </c>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="n">
-        <v>90</v>
+        <v>7855.791722399166</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,25 +456,10 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Google workspace</t>
+          <t>Github</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Github</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Gympass</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Unimed</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -500,19 +485,10 @@
         <v>3384.960765580439</v>
       </c>
       <c r="E2" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F2" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90</v>
-      </c>
-      <c r="H2" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4560.710765580439</v>
+        <v>3639.590765580439</v>
       </c>
     </row>
     <row r="3">
@@ -535,19 +511,10 @@
         <v>3719.103451680459</v>
       </c>
       <c r="E3" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>90</v>
-      </c>
-      <c r="H3" t="n">
-        <v>855.8</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4962.033451680459</v>
+        <v>3719.103451680459</v>
       </c>
     </row>
     <row r="4">
@@ -570,19 +537,10 @@
         <v>8962.729721841501</v>
       </c>
       <c r="E4" t="n">
-        <v>297.13</v>
+        <v>141.46</v>
       </c>
       <c r="F4" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="G4" t="n">
-        <v>90</v>
-      </c>
-      <c r="H4" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9936.309721841499</v>
+        <v>9104.1897218415</v>
       </c>
     </row>
     <row r="5">
@@ -605,19 +563,10 @@
         <v>8059.789738823023</v>
       </c>
       <c r="E5" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>90</v>
-      </c>
-      <c r="H5" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8891.909738823022</v>
+        <v>8059.789738823023</v>
       </c>
     </row>
     <row r="6">
@@ -640,19 +589,10 @@
         <v>7364.526801321949</v>
       </c>
       <c r="E6" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>90</v>
-      </c>
-      <c r="H6" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8196.646801321949</v>
+        <v>7364.526801321949</v>
       </c>
     </row>
     <row r="7">
@@ -675,19 +615,10 @@
         <v>5318.987724937523</v>
       </c>
       <c r="E7" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>90</v>
-      </c>
-      <c r="H7" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6151.107724937523</v>
+        <v>5318.987724937523</v>
       </c>
     </row>
     <row r="8">
@@ -710,19 +641,10 @@
         <v>9551.21905794158</v>
       </c>
       <c r="E8" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F8" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G8" t="n">
-        <v>90</v>
-      </c>
-      <c r="H8" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10557.73905794158</v>
+        <v>9805.849057941579</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +667,10 @@
         <v>8284.136836853117</v>
       </c>
       <c r="E9" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F9" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G9" t="n">
-        <v>90</v>
-      </c>
-      <c r="H9" t="n">
-        <v>560.7</v>
-      </c>
-      <c r="I9" t="n">
-        <v>9486.596836853116</v>
+        <v>8538.766836853116</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +693,10 @@
         <v>1315.118209620667</v>
       </c>
       <c r="E10" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F10" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G10" t="n">
-        <v>90</v>
-      </c>
-      <c r="H10" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2401.868209620668</v>
+        <v>1569.748209620667</v>
       </c>
     </row>
     <row r="11">
@@ -815,19 +719,10 @@
         <v>1223.312552727439</v>
       </c>
       <c r="E11" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F11" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G11" t="n">
-        <v>90</v>
-      </c>
-      <c r="H11" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2399.06255272744</v>
+        <v>1477.942552727439</v>
       </c>
     </row>
     <row r="12">
@@ -849,20 +744,9 @@
       <c r="D12" t="n">
         <v>4021.833629163991</v>
       </c>
-      <c r="E12" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>90</v>
-      </c>
-      <c r="H12" t="n">
-        <v>848.05</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5257.013629163991</v>
+        <v>4021.833629163991</v>
       </c>
     </row>
     <row r="13">
@@ -884,20 +768,9 @@
       <c r="D13" t="n">
         <v>5244.623025188975</v>
       </c>
-      <c r="E13" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>117</v>
-      </c>
-      <c r="H13" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6192.743025188975</v>
+        <v>5244.623025188975</v>
       </c>
     </row>
     <row r="14">
@@ -919,20 +792,9 @@
       <c r="D14" t="n">
         <v>8057.257421621038</v>
       </c>
-      <c r="E14" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>90</v>
-      </c>
-      <c r="H14" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8889.377421621037</v>
+        <v>8057.257421621038</v>
       </c>
     </row>
     <row r="15">
@@ -954,20 +816,9 @@
       <c r="D15" t="n">
         <v>9712.728285382607</v>
       </c>
-      <c r="E15" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="G15" t="n">
-        <v>90</v>
-      </c>
-      <c r="H15" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10775.30828538261</v>
+        <v>9712.728285382607</v>
       </c>
     </row>
     <row r="16">
@@ -989,20 +840,9 @@
       <c r="D16" t="n">
         <v>7487.999892436921</v>
       </c>
-      <c r="E16" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="G16" t="n">
-        <v>90</v>
-      </c>
-      <c r="H16" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I16" t="n">
-        <v>8550.579892436921</v>
+        <v>7487.999892436921</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +865,10 @@
         <v>8029.53768092652</v>
       </c>
       <c r="E17" t="n">
-        <v>297.13</v>
+        <v>141.46</v>
       </c>
       <c r="F17" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="G17" t="n">
-        <v>90</v>
-      </c>
-      <c r="H17" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9003.117680926518</v>
+        <v>8170.99768092652</v>
       </c>
     </row>
     <row r="18">
@@ -1060,19 +891,10 @@
         <v>2036.514997025348</v>
       </c>
       <c r="E18" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>90</v>
-      </c>
-      <c r="H18" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2788.404997025348</v>
+        <v>2036.514997025348</v>
       </c>
     </row>
     <row r="19">
@@ -1095,19 +917,10 @@
         <v>1108.340345861018</v>
       </c>
       <c r="E19" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>90</v>
-      </c>
-      <c r="H19" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1940.460345861017</v>
+        <v>1108.340345861018</v>
       </c>
     </row>
     <row r="20">
@@ -1130,19 +943,10 @@
         <v>9976.53102463056</v>
       </c>
       <c r="E20" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F20" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G20" t="n">
-        <v>90</v>
-      </c>
-      <c r="H20" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11063.28102463056</v>
+        <v>10231.16102463056</v>
       </c>
     </row>
     <row r="21">
@@ -1165,19 +969,10 @@
         <v>3295.032751492262</v>
       </c>
       <c r="E21" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F21" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G21" t="n">
-        <v>117</v>
-      </c>
-      <c r="H21" t="n">
-        <v>560.7</v>
-      </c>
-      <c r="I21" t="n">
-        <v>4524.492751492262</v>
+        <v>3549.662751492262</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +995,10 @@
         <v>8271.84079484528</v>
       </c>
       <c r="E22" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F22" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G22" t="n">
-        <v>90</v>
-      </c>
-      <c r="H22" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9447.590794845279</v>
+        <v>8526.47079484528</v>
       </c>
     </row>
     <row r="23">
@@ -1235,19 +1021,10 @@
         <v>5288.260196934793</v>
       </c>
       <c r="E23" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>90</v>
-      </c>
-      <c r="H23" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6120.380196934793</v>
+        <v>5288.260196934793</v>
       </c>
     </row>
     <row r="24">
@@ -1270,19 +1047,10 @@
         <v>4963.54282637831</v>
       </c>
       <c r="E24" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F24" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G24" t="n">
-        <v>90</v>
-      </c>
-      <c r="H24" t="n">
-        <v>560.7</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6166.00282637831</v>
+        <v>5218.17282637831</v>
       </c>
     </row>
     <row r="25">
@@ -1305,19 +1073,10 @@
         <v>4587.767886848967</v>
       </c>
       <c r="E25" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>117</v>
-      </c>
-      <c r="H25" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5366.657886848967</v>
+        <v>4587.767886848967</v>
       </c>
     </row>
     <row r="26">
@@ -1340,19 +1099,10 @@
         <v>3230.18657849905</v>
       </c>
       <c r="E26" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>90</v>
-      </c>
-      <c r="H26" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4151.30657849905</v>
+        <v>3230.18657849905</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1125,10 @@
         <v>1362.231969577253</v>
       </c>
       <c r="E27" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>90</v>
-      </c>
-      <c r="H27" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2194.351969577254</v>
+        <v>1362.231969577253</v>
       </c>
     </row>
     <row r="28">
@@ -1410,19 +1151,10 @@
         <v>7920.453739691342</v>
       </c>
       <c r="E28" t="n">
-        <v>297.13</v>
+        <v>141.46</v>
       </c>
       <c r="F28" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="G28" t="n">
-        <v>206.57</v>
-      </c>
-      <c r="H28" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8930.37373969134</v>
+        <v>8061.913739691342</v>
       </c>
     </row>
     <row r="29">
@@ -1445,19 +1177,10 @@
         <v>6387.293051889353</v>
       </c>
       <c r="E29" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>90</v>
-      </c>
-      <c r="H29" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7139.183051889353</v>
+        <v>6387.293051889353</v>
       </c>
     </row>
     <row r="30">
@@ -1480,19 +1203,10 @@
         <v>6015.101383248207</v>
       </c>
       <c r="E30" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F30" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G30" t="n">
-        <v>90</v>
-      </c>
-      <c r="H30" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7021.621383248207</v>
+        <v>6269.731383248207</v>
       </c>
     </row>
     <row r="31">
@@ -1515,19 +1229,10 @@
         <v>7266.55679736717</v>
       </c>
       <c r="E31" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F31" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G31" t="n">
-        <v>90</v>
-      </c>
-      <c r="H31" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8442.306797367171</v>
+        <v>7521.186797367171</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1255,10 @@
         <v>4610.394047610112</v>
       </c>
       <c r="E32" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F32" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G32" t="n">
-        <v>90</v>
-      </c>
-      <c r="H32" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5616.914047610113</v>
+        <v>4865.024047610113</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1281,10 @@
         <v>8187.839600815882</v>
       </c>
       <c r="E33" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F33" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G33" t="n">
-        <v>246</v>
-      </c>
-      <c r="H33" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9350.35960081588</v>
+        <v>8442.469600815881</v>
       </c>
     </row>
     <row r="34">
@@ -1620,19 +1307,10 @@
         <v>1280.596453813949</v>
       </c>
       <c r="E34" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F34" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G34" t="n">
-        <v>90</v>
-      </c>
-      <c r="H34" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2367.34645381395</v>
+        <v>1535.226453813949</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1333,10 @@
         <v>8837.775201541868</v>
       </c>
       <c r="E35" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F35" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G35" t="n">
-        <v>90</v>
-      </c>
-      <c r="H35" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9844.295201541867</v>
+        <v>9092.405201541867</v>
       </c>
     </row>
     <row r="36">
@@ -1690,19 +1359,10 @@
         <v>3266.657357480083</v>
       </c>
       <c r="E36" t="n">
-        <v>297.13</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>164</v>
-      </c>
-      <c r="H36" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4092.547357480083</v>
+        <v>3266.657357480083</v>
       </c>
     </row>
     <row r="37">
@@ -1724,20 +1384,9 @@
       <c r="D37" t="n">
         <v>8497.845668097971</v>
       </c>
-      <c r="E37" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="G37" t="n">
-        <v>90</v>
-      </c>
-      <c r="H37" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I37" t="n">
-        <v>9391.195668097969</v>
+        <v>8497.845668097971</v>
       </c>
     </row>
     <row r="38">
@@ -1759,20 +1408,9 @@
       <c r="D38" t="n">
         <v>3490.64446620121</v>
       </c>
-      <c r="E38" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>90</v>
-      </c>
-      <c r="H38" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I38" t="n">
-        <v>4322.76446620121</v>
+        <v>3490.64446620121</v>
       </c>
     </row>
     <row r="39">
@@ -1794,20 +1432,9 @@
       <c r="D39" t="n">
         <v>1212.167158944151</v>
       </c>
-      <c r="E39" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>90</v>
-      </c>
-      <c r="H39" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1964.057158944151</v>
+        <v>1212.167158944151</v>
       </c>
     </row>
     <row r="40">
@@ -1829,20 +1456,9 @@
       <c r="D40" t="n">
         <v>257.9421561647101</v>
       </c>
-      <c r="E40" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G40" t="n">
-        <v>90</v>
-      </c>
-      <c r="H40" t="n">
-        <v>404.91</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1304.61215616471</v>
+        <v>257.9421561647101</v>
       </c>
     </row>
     <row r="41">
@@ -1864,20 +1480,9 @@
       <c r="D41" t="n">
         <v>5902.434171124831</v>
       </c>
-      <c r="E41" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>90</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6289.564171124831</v>
+        <v>5902.434171124831</v>
       </c>
     </row>
     <row r="42">
@@ -1899,20 +1504,9 @@
       <c r="D42" t="n">
         <v>9925.179313508823</v>
       </c>
-      <c r="E42" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G42" t="n">
-        <v>732</v>
-      </c>
-      <c r="H42" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11573.69931350882</v>
+        <v>9925.179313508823</v>
       </c>
     </row>
     <row r="43">
@@ -1934,20 +1528,9 @@
       <c r="D43" t="n">
         <v>3997.081814681696</v>
       </c>
-      <c r="E43" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>90</v>
-      </c>
-      <c r="H43" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4829.201814681695</v>
+        <v>3997.081814681696</v>
       </c>
     </row>
     <row r="44">
@@ -1969,20 +1552,9 @@
       <c r="D44" t="n">
         <v>5244.95395791246</v>
       </c>
-      <c r="E44" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>90</v>
-      </c>
-      <c r="H44" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6166.07395791246</v>
+        <v>5244.95395791246</v>
       </c>
     </row>
     <row r="45">
@@ -2004,20 +1576,9 @@
       <c r="D45" t="n">
         <v>6183.77422031294</v>
       </c>
-      <c r="E45" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>90</v>
-      </c>
-      <c r="H45" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I45" t="n">
-        <v>6935.66422031294</v>
+        <v>6183.77422031294</v>
       </c>
     </row>
     <row r="46">
@@ -2039,20 +1600,9 @@
       <c r="D46" t="n">
         <v>6173.403303137569</v>
       </c>
-      <c r="E46" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>90</v>
-      </c>
-      <c r="H46" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7005.523303137569</v>
+        <v>6173.403303137569</v>
       </c>
     </row>
     <row r="47">
@@ -2074,20 +1624,9 @@
       <c r="D47" t="n">
         <v>7065.151216079629</v>
       </c>
-      <c r="E47" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>90</v>
-      </c>
-      <c r="H47" t="n">
-        <v>684.63</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8136.911216079629</v>
+        <v>7065.151216079629</v>
       </c>
     </row>
     <row r="48">
@@ -2109,20 +1648,9 @@
       <c r="D48" t="n">
         <v>9095.090151715545</v>
       </c>
-      <c r="E48" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>90</v>
-      </c>
-      <c r="H48" t="n">
-        <v>855.8</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10338.02015171554</v>
+        <v>9095.090151715545</v>
       </c>
     </row>
     <row r="49">
@@ -2144,20 +1672,9 @@
       <c r="D49" t="n">
         <v>746.9510783679258</v>
       </c>
-      <c r="E49" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G49" t="n">
-        <v>90</v>
-      </c>
-      <c r="H49" t="n">
-        <v>560.7</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1949.411078367926</v>
+        <v>746.9510783679258</v>
       </c>
     </row>
     <row r="50">
@@ -2179,20 +1696,9 @@
       <c r="D50" t="n">
         <v>8733.661290965678</v>
       </c>
-      <c r="E50" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G50" t="n">
-        <v>90</v>
-      </c>
-      <c r="H50" t="n">
-        <v>855.8</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10231.22129096568</v>
+        <v>8733.661290965678</v>
       </c>
     </row>
     <row r="51">
@@ -2214,20 +1720,9 @@
       <c r="D51" t="n">
         <v>3952.204962932551</v>
       </c>
-      <c r="E51" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G51" t="n">
-        <v>164</v>
-      </c>
-      <c r="H51" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I51" t="n">
-        <v>5032.724962932551</v>
+        <v>3952.204962932551</v>
       </c>
     </row>
     <row r="52">
@@ -2249,20 +1744,9 @@
       <c r="D52" t="n">
         <v>6993.13850131002</v>
       </c>
-      <c r="E52" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>90</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-328.28</v>
-      </c>
-      <c r="I52" t="n">
-        <v>7051.98850131002</v>
+        <v>6993.13850131002</v>
       </c>
     </row>
     <row r="53">
@@ -2284,20 +1768,9 @@
       <c r="D53" t="n">
         <v>490.174359132607</v>
       </c>
-      <c r="E53" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G53" t="n">
-        <v>90</v>
-      </c>
-      <c r="H53" t="n">
-        <v>622.41</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1754.344359132607</v>
+        <v>490.174359132607</v>
       </c>
     </row>
     <row r="54">
@@ -2319,20 +1792,9 @@
       <c r="D54" t="n">
         <v>1461.243910515265</v>
       </c>
-      <c r="E54" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>90</v>
-      </c>
-      <c r="H54" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2293.363910515265</v>
+        <v>1461.243910515265</v>
       </c>
     </row>
     <row r="55">
@@ -2354,20 +1816,9 @@
       <c r="D55" t="n">
         <v>2741.365342728207</v>
       </c>
-      <c r="E55" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>90</v>
-      </c>
-      <c r="H55" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3573.485342728207</v>
+        <v>2741.365342728207</v>
       </c>
     </row>
     <row r="56">
@@ -2389,20 +1840,9 @@
       <c r="D56" t="n">
         <v>4455.059040524839</v>
       </c>
-      <c r="E56" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>90</v>
-      </c>
-      <c r="H56" t="n">
-        <v>444.99</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5287.179040524838</v>
+        <v>4455.059040524839</v>
       </c>
     </row>
     <row r="57">
@@ -2424,20 +1864,9 @@
       <c r="D57" t="n">
         <v>800.1804264146962</v>
       </c>
-      <c r="E57" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G57" t="n">
-        <v>90</v>
-      </c>
-      <c r="H57" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1806.700426414696</v>
+        <v>800.1804264146962</v>
       </c>
     </row>
     <row r="58">
@@ -2459,20 +1888,9 @@
       <c r="D58" t="n">
         <v>7336.902571199591</v>
       </c>
-      <c r="E58" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>90</v>
-      </c>
-      <c r="H58" t="n">
-        <v>364.76</v>
-      </c>
-      <c r="I58" t="n">
-        <v>8088.792571199591</v>
+        <v>7336.902571199591</v>
       </c>
     </row>
     <row r="59">
@@ -2494,20 +1912,9 @@
       <c r="D59" t="n">
         <v>1728.629771639805</v>
       </c>
-      <c r="E59" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>117</v>
-      </c>
-      <c r="H59" t="n">
-        <v>560.7</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2703.459771639805</v>
+        <v>1728.629771639805</v>
       </c>
     </row>
     <row r="60">
@@ -2529,20 +1936,9 @@
       <c r="D60" t="n">
         <v>5960.861253655476</v>
       </c>
-      <c r="E60" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G60" t="n">
-        <v>90</v>
-      </c>
-      <c r="H60" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7136.611253655476</v>
+        <v>5960.861253655476</v>
       </c>
     </row>
     <row r="61">
@@ -2564,20 +1960,9 @@
       <c r="D61" t="n">
         <v>7306.398876912478</v>
       </c>
-      <c r="E61" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>90</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-17.8</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7675.728876912478</v>
+        <v>7306.398876912478</v>
       </c>
     </row>
     <row r="62">
@@ -2599,20 +1984,9 @@
       <c r="D62" t="n">
         <v>4055.50889721234</v>
       </c>
-      <c r="E62" t="n">
-        <v>297.13</v>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G62" t="n">
-        <v>90</v>
-      </c>
-      <c r="H62" t="n">
-        <v>533.99</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5231.258897212339</v>
+        <v>4055.50889721234</v>
       </c>
     </row>
     <row r="63">
@@ -2635,19 +2009,10 @@
         <v>6715.641722399166</v>
       </c>
       <c r="E63" t="n">
-        <v>297.13</v>
+        <v>254.63</v>
       </c>
       <c r="F63" t="n">
-        <v>254.63</v>
-      </c>
-      <c r="G63" t="n">
-        <v>90</v>
-      </c>
-      <c r="H63" t="n">
-        <v>498.39</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7855.791722399166</v>
+        <v>6970.271722399166</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,21 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Googleworkspace</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Gympass</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Unimed</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -488,7 +503,16 @@
         <v>254.63</v>
       </c>
       <c r="F2" t="n">
-        <v>3639.590765580439</v>
+        <v>297.13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H2" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4560.710765580439</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +538,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3719.103451680459</v>
+        <v>297.13</v>
+      </c>
+      <c r="G3" t="n">
+        <v>90</v>
+      </c>
+      <c r="H3" t="n">
+        <v>855.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4962.033451680459</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +573,16 @@
         <v>141.46</v>
       </c>
       <c r="F4" t="n">
-        <v>9104.1897218415</v>
+        <v>297.13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>90</v>
+      </c>
+      <c r="H4" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9936.309721841499</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +608,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8059.789738823023</v>
+        <v>297.13</v>
+      </c>
+      <c r="G5" t="n">
+        <v>90</v>
+      </c>
+      <c r="H5" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8891.909738823022</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +643,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7364.526801321949</v>
+        <v>297.13</v>
+      </c>
+      <c r="G6" t="n">
+        <v>90</v>
+      </c>
+      <c r="H6" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8196.646801321949</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +678,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>5318.987724937523</v>
+        <v>297.13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>90</v>
+      </c>
+      <c r="H7" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6151.107724937523</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +713,16 @@
         <v>254.63</v>
       </c>
       <c r="F8" t="n">
-        <v>9805.849057941579</v>
+        <v>297.13</v>
+      </c>
+      <c r="G8" t="n">
+        <v>90</v>
+      </c>
+      <c r="H8" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10557.73905794158</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +748,16 @@
         <v>254.63</v>
       </c>
       <c r="F9" t="n">
-        <v>8538.766836853116</v>
+        <v>297.13</v>
+      </c>
+      <c r="G9" t="n">
+        <v>90</v>
+      </c>
+      <c r="H9" t="n">
+        <v>560.7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9486.596836853116</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +783,16 @@
         <v>254.63</v>
       </c>
       <c r="F10" t="n">
-        <v>1569.748209620667</v>
+        <v>297.13</v>
+      </c>
+      <c r="G10" t="n">
+        <v>90</v>
+      </c>
+      <c r="H10" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2401.868209620668</v>
       </c>
     </row>
     <row r="11">
@@ -722,7 +818,16 @@
         <v>254.63</v>
       </c>
       <c r="F11" t="n">
-        <v>1477.942552727439</v>
+        <v>297.13</v>
+      </c>
+      <c r="G11" t="n">
+        <v>90</v>
+      </c>
+      <c r="H11" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2399.06255272744</v>
       </c>
     </row>
     <row r="12">
@@ -744,9 +849,20 @@
       <c r="D12" t="n">
         <v>4021.833629163991</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" t="n">
-        <v>4021.833629163991</v>
+        <v>297.13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>90</v>
+      </c>
+      <c r="H12" t="n">
+        <v>848.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5257.013629163991</v>
       </c>
     </row>
     <row r="13">
@@ -768,9 +884,20 @@
       <c r="D13" t="n">
         <v>5244.623025188975</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" t="n">
-        <v>5244.623025188975</v>
+        <v>297.13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>117</v>
+      </c>
+      <c r="H13" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6192.743025188975</v>
       </c>
     </row>
     <row r="14">
@@ -792,9 +919,20 @@
       <c r="D14" t="n">
         <v>8057.257421621038</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
       <c r="F14" t="n">
-        <v>8057.257421621038</v>
+        <v>297.13</v>
+      </c>
+      <c r="G14" t="n">
+        <v>90</v>
+      </c>
+      <c r="H14" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8889.377421621037</v>
       </c>
     </row>
     <row r="15">
@@ -816,9 +954,20 @@
       <c r="D15" t="n">
         <v>9712.728285382607</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>141.46</v>
+      </c>
       <c r="F15" t="n">
-        <v>9712.728285382607</v>
+        <v>297.13</v>
+      </c>
+      <c r="G15" t="n">
+        <v>90</v>
+      </c>
+      <c r="H15" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10775.30828538261</v>
       </c>
     </row>
     <row r="16">
@@ -840,9 +989,20 @@
       <c r="D16" t="n">
         <v>7487.999892436921</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>141.46</v>
+      </c>
       <c r="F16" t="n">
-        <v>7487.999892436921</v>
+        <v>297.13</v>
+      </c>
+      <c r="G16" t="n">
+        <v>90</v>
+      </c>
+      <c r="H16" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8550.579892436921</v>
       </c>
     </row>
     <row r="17">
@@ -868,7 +1028,16 @@
         <v>141.46</v>
       </c>
       <c r="F17" t="n">
-        <v>8170.99768092652</v>
+        <v>297.13</v>
+      </c>
+      <c r="G17" t="n">
+        <v>90</v>
+      </c>
+      <c r="H17" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9003.11768092652</v>
       </c>
     </row>
     <row r="18">
@@ -894,7 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2036.514997025348</v>
+        <v>297.13</v>
+      </c>
+      <c r="G18" t="n">
+        <v>90</v>
+      </c>
+      <c r="H18" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2788.404997025348</v>
       </c>
     </row>
     <row r="19">
@@ -920,7 +1098,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1108.340345861018</v>
+        <v>297.13</v>
+      </c>
+      <c r="G19" t="n">
+        <v>90</v>
+      </c>
+      <c r="H19" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1940.460345861017</v>
       </c>
     </row>
     <row r="20">
@@ -946,7 +1133,16 @@
         <v>254.63</v>
       </c>
       <c r="F20" t="n">
-        <v>10231.16102463056</v>
+        <v>297.13</v>
+      </c>
+      <c r="G20" t="n">
+        <v>90</v>
+      </c>
+      <c r="H20" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11063.28102463056</v>
       </c>
     </row>
     <row r="21">
@@ -972,7 +1168,16 @@
         <v>254.63</v>
       </c>
       <c r="F21" t="n">
-        <v>3549.662751492262</v>
+        <v>297.13</v>
+      </c>
+      <c r="G21" t="n">
+        <v>117</v>
+      </c>
+      <c r="H21" t="n">
+        <v>560.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>4524.492751492262</v>
       </c>
     </row>
     <row r="22">
@@ -998,7 +1203,16 @@
         <v>254.63</v>
       </c>
       <c r="F22" t="n">
-        <v>8526.47079484528</v>
+        <v>297.13</v>
+      </c>
+      <c r="G22" t="n">
+        <v>90</v>
+      </c>
+      <c r="H22" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9447.590794845279</v>
       </c>
     </row>
     <row r="23">
@@ -1024,7 +1238,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>5288.260196934793</v>
+        <v>297.13</v>
+      </c>
+      <c r="G23" t="n">
+        <v>90</v>
+      </c>
+      <c r="H23" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6120.380196934793</v>
       </c>
     </row>
     <row r="24">
@@ -1050,7 +1273,16 @@
         <v>254.63</v>
       </c>
       <c r="F24" t="n">
-        <v>5218.17282637831</v>
+        <v>297.13</v>
+      </c>
+      <c r="G24" t="n">
+        <v>90</v>
+      </c>
+      <c r="H24" t="n">
+        <v>560.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6166.00282637831</v>
       </c>
     </row>
     <row r="25">
@@ -1076,7 +1308,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>4587.767886848967</v>
+        <v>297.13</v>
+      </c>
+      <c r="G25" t="n">
+        <v>117</v>
+      </c>
+      <c r="H25" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5366.657886848967</v>
       </c>
     </row>
     <row r="26">
@@ -1102,7 +1343,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3230.18657849905</v>
+        <v>297.13</v>
+      </c>
+      <c r="G26" t="n">
+        <v>90</v>
+      </c>
+      <c r="H26" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4151.30657849905</v>
       </c>
     </row>
     <row r="27">
@@ -1128,7 +1378,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1362.231969577253</v>
+        <v>297.13</v>
+      </c>
+      <c r="G27" t="n">
+        <v>90</v>
+      </c>
+      <c r="H27" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2194.351969577254</v>
       </c>
     </row>
     <row r="28">
@@ -1154,7 +1413,16 @@
         <v>141.46</v>
       </c>
       <c r="F28" t="n">
-        <v>8061.913739691342</v>
+        <v>297.13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>206.57</v>
+      </c>
+      <c r="H28" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8930.373739691342</v>
       </c>
     </row>
     <row r="29">
@@ -1180,7 +1448,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6387.293051889353</v>
+        <v>297.13</v>
+      </c>
+      <c r="G29" t="n">
+        <v>90</v>
+      </c>
+      <c r="H29" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7139.183051889353</v>
       </c>
     </row>
     <row r="30">
@@ -1206,7 +1483,16 @@
         <v>254.63</v>
       </c>
       <c r="F30" t="n">
-        <v>6269.731383248207</v>
+        <v>297.13</v>
+      </c>
+      <c r="G30" t="n">
+        <v>90</v>
+      </c>
+      <c r="H30" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7021.621383248207</v>
       </c>
     </row>
     <row r="31">
@@ -1232,7 +1518,16 @@
         <v>254.63</v>
       </c>
       <c r="F31" t="n">
-        <v>7521.186797367171</v>
+        <v>297.13</v>
+      </c>
+      <c r="G31" t="n">
+        <v>90</v>
+      </c>
+      <c r="H31" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8442.306797367171</v>
       </c>
     </row>
     <row r="32">
@@ -1258,7 +1553,16 @@
         <v>254.63</v>
       </c>
       <c r="F32" t="n">
-        <v>4865.024047610113</v>
+        <v>297.13</v>
+      </c>
+      <c r="G32" t="n">
+        <v>90</v>
+      </c>
+      <c r="H32" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5616.914047610113</v>
       </c>
     </row>
     <row r="33">
@@ -1284,7 +1588,16 @@
         <v>254.63</v>
       </c>
       <c r="F33" t="n">
-        <v>8442.469600815881</v>
+        <v>297.13</v>
+      </c>
+      <c r="G33" t="n">
+        <v>246</v>
+      </c>
+      <c r="H33" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9350.35960081588</v>
       </c>
     </row>
     <row r="34">
@@ -1310,7 +1623,16 @@
         <v>254.63</v>
       </c>
       <c r="F34" t="n">
-        <v>1535.226453813949</v>
+        <v>297.13</v>
+      </c>
+      <c r="G34" t="n">
+        <v>90</v>
+      </c>
+      <c r="H34" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2367.34645381395</v>
       </c>
     </row>
     <row r="35">
@@ -1336,7 +1658,16 @@
         <v>254.63</v>
       </c>
       <c r="F35" t="n">
-        <v>9092.405201541867</v>
+        <v>297.13</v>
+      </c>
+      <c r="G35" t="n">
+        <v>90</v>
+      </c>
+      <c r="H35" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9844.295201541867</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1693,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3266.657357480083</v>
+        <v>297.13</v>
+      </c>
+      <c r="G36" t="n">
+        <v>164</v>
+      </c>
+      <c r="H36" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4092.547357480083</v>
       </c>
     </row>
     <row r="37">
@@ -1384,9 +1724,20 @@
       <c r="D37" t="n">
         <v>8497.845668097971</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>141.46</v>
+      </c>
       <c r="F37" t="n">
-        <v>8497.845668097971</v>
+        <v>297.13</v>
+      </c>
+      <c r="G37" t="n">
+        <v>90</v>
+      </c>
+      <c r="H37" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9391.195668097969</v>
       </c>
     </row>
     <row r="38">
@@ -1408,9 +1759,20 @@
       <c r="D38" t="n">
         <v>3490.64446620121</v>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
       <c r="F38" t="n">
-        <v>3490.64446620121</v>
+        <v>297.13</v>
+      </c>
+      <c r="G38" t="n">
+        <v>90</v>
+      </c>
+      <c r="H38" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4322.76446620121</v>
       </c>
     </row>
     <row r="39">
@@ -1432,9 +1794,20 @@
       <c r="D39" t="n">
         <v>1212.167158944151</v>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
       <c r="F39" t="n">
-        <v>1212.167158944151</v>
+        <v>297.13</v>
+      </c>
+      <c r="G39" t="n">
+        <v>90</v>
+      </c>
+      <c r="H39" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1964.057158944151</v>
       </c>
     </row>
     <row r="40">
@@ -1456,9 +1829,20 @@
       <c r="D40" t="n">
         <v>257.9421561647101</v>
       </c>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>254.63</v>
+      </c>
       <c r="F40" t="n">
-        <v>257.9421561647101</v>
+        <v>297.13</v>
+      </c>
+      <c r="G40" t="n">
+        <v>90</v>
+      </c>
+      <c r="H40" t="n">
+        <v>404.91</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1304.61215616471</v>
       </c>
     </row>
     <row r="41">
@@ -1480,9 +1864,20 @@
       <c r="D41" t="n">
         <v>5902.434171124831</v>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
       <c r="F41" t="n">
-        <v>5902.434171124831</v>
+        <v>297.13</v>
+      </c>
+      <c r="G41" t="n">
+        <v>90</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6289.564171124831</v>
       </c>
     </row>
     <row r="42">
@@ -1504,9 +1899,20 @@
       <c r="D42" t="n">
         <v>9925.179313508823</v>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>254.63</v>
+      </c>
       <c r="F42" t="n">
-        <v>9925.179313508823</v>
+        <v>297.13</v>
+      </c>
+      <c r="G42" t="n">
+        <v>732</v>
+      </c>
+      <c r="H42" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11573.69931350882</v>
       </c>
     </row>
     <row r="43">
@@ -1528,9 +1934,20 @@
       <c r="D43" t="n">
         <v>3997.081814681696</v>
       </c>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
       <c r="F43" t="n">
-        <v>3997.081814681696</v>
+        <v>297.13</v>
+      </c>
+      <c r="G43" t="n">
+        <v>90</v>
+      </c>
+      <c r="H43" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4829.201814681695</v>
       </c>
     </row>
     <row r="44">
@@ -1552,9 +1969,20 @@
       <c r="D44" t="n">
         <v>5244.95395791246</v>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
       <c r="F44" t="n">
-        <v>5244.95395791246</v>
+        <v>297.13</v>
+      </c>
+      <c r="G44" t="n">
+        <v>90</v>
+      </c>
+      <c r="H44" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6166.07395791246</v>
       </c>
     </row>
     <row r="45">
@@ -1576,9 +2004,20 @@
       <c r="D45" t="n">
         <v>6183.77422031294</v>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
       <c r="F45" t="n">
-        <v>6183.77422031294</v>
+        <v>297.13</v>
+      </c>
+      <c r="G45" t="n">
+        <v>90</v>
+      </c>
+      <c r="H45" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I45" t="n">
+        <v>6935.66422031294</v>
       </c>
     </row>
     <row r="46">
@@ -1600,9 +2039,20 @@
       <c r="D46" t="n">
         <v>6173.403303137569</v>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
       <c r="F46" t="n">
-        <v>6173.403303137569</v>
+        <v>297.13</v>
+      </c>
+      <c r="G46" t="n">
+        <v>90</v>
+      </c>
+      <c r="H46" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I46" t="n">
+        <v>7005.523303137569</v>
       </c>
     </row>
     <row r="47">
@@ -1624,9 +2074,20 @@
       <c r="D47" t="n">
         <v>7065.151216079629</v>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
       <c r="F47" t="n">
-        <v>7065.151216079629</v>
+        <v>297.13</v>
+      </c>
+      <c r="G47" t="n">
+        <v>90</v>
+      </c>
+      <c r="H47" t="n">
+        <v>684.63</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8136.911216079629</v>
       </c>
     </row>
     <row r="48">
@@ -1648,9 +2109,20 @@
       <c r="D48" t="n">
         <v>9095.090151715545</v>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
       <c r="F48" t="n">
-        <v>9095.090151715545</v>
+        <v>297.13</v>
+      </c>
+      <c r="G48" t="n">
+        <v>90</v>
+      </c>
+      <c r="H48" t="n">
+        <v>855.8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10338.02015171554</v>
       </c>
     </row>
     <row r="49">
@@ -1672,9 +2144,20 @@
       <c r="D49" t="n">
         <v>746.9510783679258</v>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>254.63</v>
+      </c>
       <c r="F49" t="n">
-        <v>746.9510783679258</v>
+        <v>297.13</v>
+      </c>
+      <c r="G49" t="n">
+        <v>90</v>
+      </c>
+      <c r="H49" t="n">
+        <v>560.7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1949.411078367926</v>
       </c>
     </row>
     <row r="50">
@@ -1696,9 +2179,20 @@
       <c r="D50" t="n">
         <v>8733.661290965678</v>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>254.63</v>
+      </c>
       <c r="F50" t="n">
-        <v>8733.661290965678</v>
+        <v>297.13</v>
+      </c>
+      <c r="G50" t="n">
+        <v>90</v>
+      </c>
+      <c r="H50" t="n">
+        <v>855.8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>10231.22129096568</v>
       </c>
     </row>
     <row r="51">
@@ -1720,9 +2214,20 @@
       <c r="D51" t="n">
         <v>3952.204962932551</v>
       </c>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>254.63</v>
+      </c>
       <c r="F51" t="n">
-        <v>3952.204962932551</v>
+        <v>297.13</v>
+      </c>
+      <c r="G51" t="n">
+        <v>164</v>
+      </c>
+      <c r="H51" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5032.724962932551</v>
       </c>
     </row>
     <row r="52">
@@ -1744,9 +2249,20 @@
       <c r="D52" t="n">
         <v>6993.13850131002</v>
       </c>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
       <c r="F52" t="n">
-        <v>6993.13850131002</v>
+        <v>297.13</v>
+      </c>
+      <c r="G52" t="n">
+        <v>90</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-328.28</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7051.98850131002</v>
       </c>
     </row>
     <row r="53">
@@ -1768,9 +2284,20 @@
       <c r="D53" t="n">
         <v>490.174359132607</v>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>254.63</v>
+      </c>
       <c r="F53" t="n">
-        <v>490.174359132607</v>
+        <v>297.13</v>
+      </c>
+      <c r="G53" t="n">
+        <v>90</v>
+      </c>
+      <c r="H53" t="n">
+        <v>622.41</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1754.344359132607</v>
       </c>
     </row>
     <row r="54">
@@ -1792,9 +2319,20 @@
       <c r="D54" t="n">
         <v>1461.243910515265</v>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
       <c r="F54" t="n">
-        <v>1461.243910515265</v>
+        <v>297.13</v>
+      </c>
+      <c r="G54" t="n">
+        <v>90</v>
+      </c>
+      <c r="H54" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2293.363910515265</v>
       </c>
     </row>
     <row r="55">
@@ -1816,9 +2354,20 @@
       <c r="D55" t="n">
         <v>2741.365342728207</v>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
       <c r="F55" t="n">
-        <v>2741.365342728207</v>
+        <v>297.13</v>
+      </c>
+      <c r="G55" t="n">
+        <v>90</v>
+      </c>
+      <c r="H55" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3573.485342728207</v>
       </c>
     </row>
     <row r="56">
@@ -1840,9 +2389,20 @@
       <c r="D56" t="n">
         <v>4455.059040524839</v>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
       <c r="F56" t="n">
-        <v>4455.059040524839</v>
+        <v>297.13</v>
+      </c>
+      <c r="G56" t="n">
+        <v>90</v>
+      </c>
+      <c r="H56" t="n">
+        <v>444.99</v>
+      </c>
+      <c r="I56" t="n">
+        <v>5287.179040524838</v>
       </c>
     </row>
     <row r="57">
@@ -1864,9 +2424,20 @@
       <c r="D57" t="n">
         <v>800.1804264146962</v>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>254.63</v>
+      </c>
       <c r="F57" t="n">
-        <v>800.1804264146962</v>
+        <v>297.13</v>
+      </c>
+      <c r="G57" t="n">
+        <v>90</v>
+      </c>
+      <c r="H57" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1806.700426414696</v>
       </c>
     </row>
     <row r="58">
@@ -1888,9 +2459,20 @@
       <c r="D58" t="n">
         <v>7336.902571199591</v>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
       <c r="F58" t="n">
-        <v>7336.902571199591</v>
+        <v>297.13</v>
+      </c>
+      <c r="G58" t="n">
+        <v>90</v>
+      </c>
+      <c r="H58" t="n">
+        <v>364.76</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8088.792571199591</v>
       </c>
     </row>
     <row r="59">
@@ -1912,9 +2494,20 @@
       <c r="D59" t="n">
         <v>1728.629771639805</v>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
       <c r="F59" t="n">
-        <v>1728.629771639805</v>
+        <v>297.13</v>
+      </c>
+      <c r="G59" t="n">
+        <v>117</v>
+      </c>
+      <c r="H59" t="n">
+        <v>560.7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2703.459771639805</v>
       </c>
     </row>
     <row r="60">
@@ -1936,9 +2529,20 @@
       <c r="D60" t="n">
         <v>5960.861253655476</v>
       </c>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>254.63</v>
+      </c>
       <c r="F60" t="n">
-        <v>5960.861253655476</v>
+        <v>297.13</v>
+      </c>
+      <c r="G60" t="n">
+        <v>90</v>
+      </c>
+      <c r="H60" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7136.611253655476</v>
       </c>
     </row>
     <row r="61">
@@ -1960,9 +2564,20 @@
       <c r="D61" t="n">
         <v>7306.398876912478</v>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
       <c r="F61" t="n">
-        <v>7306.398876912478</v>
+        <v>297.13</v>
+      </c>
+      <c r="G61" t="n">
+        <v>90</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7675.728876912478</v>
       </c>
     </row>
     <row r="62">
@@ -1984,9 +2599,20 @@
       <c r="D62" t="n">
         <v>4055.50889721234</v>
       </c>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>254.63</v>
+      </c>
       <c r="F62" t="n">
-        <v>4055.50889721234</v>
+        <v>297.13</v>
+      </c>
+      <c r="G62" t="n">
+        <v>90</v>
+      </c>
+      <c r="H62" t="n">
+        <v>533.99</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5231.258897212339</v>
       </c>
     </row>
     <row r="63">
@@ -2012,7 +2638,16 @@
         <v>254.63</v>
       </c>
       <c r="F63" t="n">
-        <v>6970.271722399166</v>
+        <v>297.13</v>
+      </c>
+      <c r="G63" t="n">
+        <v>90</v>
+      </c>
+      <c r="H63" t="n">
+        <v>498.39</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7855.791722399166</v>
       </c>
     </row>
   </sheetData>
